--- a/Datos/Database by set/Set with text box/Xlsx sets/San Diego Comic-Con 2016 (PS16).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/San Diego Comic-Con 2016 (PS16).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,245 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chandra, Flamecaller</t>
+          <t>('Chandra, Flamecaller', ['{4}{R}{R}', 'Legendary Planeswalker — Chandra', '+1: Create two 3/1 red Elemental creature tokens with haste. Exile them at the beginning of the next end step.', '0: Discard all the cards in your hand, then draw that many cards plus one.', '−X: Chandra, Flamecaller deals X damage to each creature.', 'Loyalty: 4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{R}{R}</t>
+          <t>('Gideon, Ally of Zendikar', ['{2}{W}{W}', 'Legendary Planeswalker — Gideon', '+1: Until end of turn, Gideon, Ally of Zendikar becomes a 5/5 Human Soldier Ally creature with indestructible that’s still a planeswalker. Prevent all damage that would be dealt to him this turn.', '0: Create a 2/2 white Knight Ally creature token.', '−4: You get an emblem with “Creatures you control get +1/+1.”', 'Loyalty: 4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Legendary Planeswalker — Chandra</t>
+          <t>('Jace, Unraveler of Secrets', ['{3}{U}{U}', 'Legendary Planeswalker — Jace', '+1: Scry 1, then draw a card.', '−2: Return target creature to its owner’s hand.', '−8: You get an emblem with “Whenever an opponent casts their first spell each turn, counter that spell.”', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>+1: Create two 3/1 red Elemental creature tokens with haste. Exile them at the beginning of the next end step.</t>
+          <t>('Liliana, the Last Hope', ['{1}{B}{B}', 'Legendary Planeswalker — Liliana', '+1: Up to one target creature gets -2/-1 until your next turn.', '−2: Mill two cards, then you may return a creature card from your graveyard to your hand.', '−7: You get an emblem with “At the beginning of your end step, create X 2/2 black Zombie creature tokens, where X is two plus the number of Zombies you control.”', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0: Discard all the cards in your hand, then draw that many cards plus one.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>−X: Chandra, Flamecaller deals X damage to each creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Loyalty: 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gideon, Ally of Zendikar</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Gideon</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>+1: Until end of turn, Gideon, Ally of Zendikar becomes a 5/5 Human Soldier Ally creature with indestructible that’s still a planeswalker. Prevent all damage that would be dealt to him this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>0: Create a 2/2 white Knight Ally creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>−4: You get an emblem with “Creatures you control get +1/+1.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Loyalty: 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Jace, Unraveler of Secrets</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{3}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Jace</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>+1: Scry 1, then draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>−2: Return target creature to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>−8: You get an emblem with “Whenever an opponent casts their first spell each turn, counter that spell.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Loyalty: 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Liliana, the Last Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{1}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Liliana</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>+1: Up to one target creature gets -2/-1 until your next turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>−2: Mill two cards, then you may return a creature card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>−7: You get an emblem with “At the beginning of your end step, create X 2/2 black Zombie creature tokens, where X is two plus the number of Zombies you control.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Loyalty: 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Nissa, Voice of Zendikar</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{1}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Nissa</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>+1: Create a 0/1 green Plant creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>−2: Put a +1/+1 counter on each creature you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>−7: You gain X life and draw X cards, where X is the number of lands you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Loyalty: 3</t>
+          <t>('Nissa, Voice of Zendikar', ['{1}{G}{G}', 'Legendary Planeswalker — Nissa', '+1: Create a 0/1 green Plant creature token.', '−2: Put a +1/+1 counter on each creature you control.', '−7: You gain X life and draw X cards, where X is the number of lands you control.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
